--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H2">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I2">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J2">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N2">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="O2">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P2">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q2">
-        <v>0.2693042970603334</v>
+        <v>2.711812810651666</v>
       </c>
       <c r="R2">
-        <v>2.423738673543</v>
+        <v>24.406315295865</v>
       </c>
       <c r="S2">
-        <v>0.0002480933300269206</v>
+        <v>0.003148456218265024</v>
       </c>
       <c r="T2">
-        <v>0.0002480933300269207</v>
+        <v>0.003148456218265025</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H3">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I3">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J3">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>137.100929</v>
       </c>
       <c r="O3">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P3">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q3">
-        <v>18.18776354083034</v>
+        <v>46.33208598093522</v>
       </c>
       <c r="R3">
-        <v>163.689871867473</v>
+        <v>416.988773828417</v>
       </c>
       <c r="S3">
-        <v>0.01675525742382014</v>
+        <v>0.05379226163357884</v>
       </c>
       <c r="T3">
-        <v>0.01675525742382014</v>
+        <v>0.05379226163357886</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H4">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I4">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J4">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N4">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="O4">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P4">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q4">
-        <v>10.60825361849</v>
+        <v>11.61944034639189</v>
       </c>
       <c r="R4">
-        <v>95.47428256640998</v>
+        <v>104.574963117527</v>
       </c>
       <c r="S4">
-        <v>0.009772725480840334</v>
+        <v>0.01349034825252774</v>
       </c>
       <c r="T4">
-        <v>0.009772725480840336</v>
+        <v>0.01349034825252774</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H5">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I5">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J5">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,42 +744,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N5">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="O5">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P5">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q5">
-        <v>0.05828110603733334</v>
+        <v>0.005711886293999999</v>
       </c>
       <c r="R5">
-        <v>0.524529954336</v>
+        <v>0.051406976646</v>
       </c>
       <c r="S5">
-        <v>5.369076480504413E-05</v>
+        <v>6.631587493697796E-06</v>
       </c>
       <c r="T5">
-        <v>5.369076480504415E-05</v>
+        <v>6.631587493697798E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.34891866666666</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H6">
-        <v>34.04675599999999</v>
+        <v>3.041473</v>
       </c>
       <c r="I6">
-        <v>0.7650877144845757</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J6">
-        <v>0.7650877144845759</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6766796666666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N6">
-        <v>2.030039</v>
+        <v>0.029028</v>
       </c>
       <c r="O6">
-        <v>0.009246943144590633</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P6">
-        <v>0.009246943144590635</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q6">
-        <v>7.679582500387109</v>
+        <v>0.009809764249333332</v>
       </c>
       <c r="R6">
-        <v>69.11624250348399</v>
+        <v>0.088287878244</v>
       </c>
       <c r="S6">
-        <v>0.007074722596463663</v>
+        <v>1.138928657952074E-05</v>
       </c>
       <c r="T6">
-        <v>0.007074722596463666</v>
+        <v>1.138928657952075E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H7">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I7">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J7">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.70030966666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N7">
-        <v>137.100929</v>
+        <v>8.024505</v>
       </c>
       <c r="O7">
-        <v>0.624502531987591</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P7">
-        <v>0.6245025319875911</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q7">
-        <v>518.6490974484803</v>
+        <v>30.35648486175333</v>
       </c>
       <c r="R7">
-        <v>4667.841877036323</v>
+        <v>273.20836375578</v>
       </c>
       <c r="S7">
-        <v>0.4777992148882166</v>
+        <v>0.03524434398725619</v>
       </c>
       <c r="T7">
-        <v>0.4777992148882168</v>
+        <v>0.03524434398725619</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H8">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I8">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J8">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.65531</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N8">
-        <v>79.96592999999999</v>
+        <v>137.100929</v>
       </c>
       <c r="O8">
-        <v>0.3642493608321389</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P8">
-        <v>0.3642493608321389</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q8">
-        <v>302.5089452247865</v>
+        <v>518.6490974484806</v>
       </c>
       <c r="R8">
-        <v>2722.580507023079</v>
+        <v>4667.841877036324</v>
       </c>
       <c r="S8">
-        <v>0.2786827109815286</v>
+        <v>0.6021595478659915</v>
       </c>
       <c r="T8">
-        <v>0.2786827109815288</v>
+        <v>0.6021595478659916</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,170 +974,170 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H9">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I9">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J9">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1464426666666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N9">
-        <v>0.439328</v>
+        <v>34.382999</v>
       </c>
       <c r="O9">
-        <v>0.002001164035679469</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P9">
-        <v>0.00200116403567947</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q9">
-        <v>1.661965913329777</v>
+        <v>130.0699530556938</v>
       </c>
       <c r="R9">
-        <v>14.957693219968</v>
+        <v>1170.629577501244</v>
       </c>
       <c r="S9">
-        <v>0.001531066018366735</v>
+        <v>0.1510132081753935</v>
       </c>
       <c r="T9">
-        <v>0.001531066018366736</v>
+        <v>0.1510132081753935</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11.34891866666667</v>
+      </c>
+      <c r="H10">
+        <v>34.046756</v>
+      </c>
+      <c r="I10">
+        <v>0.7886188286984264</v>
+      </c>
+      <c r="J10">
+        <v>0.7886188286984265</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G10">
-        <v>0.119535</v>
-      </c>
-      <c r="H10">
-        <v>0.358605</v>
-      </c>
-      <c r="I10">
-        <v>0.008058455843861933</v>
-      </c>
-      <c r="J10">
-        <v>0.008058455843861934</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
       <c r="M10">
-        <v>0.6766796666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N10">
-        <v>2.030039</v>
+        <v>0.016902</v>
       </c>
       <c r="O10">
-        <v>0.009246943144590633</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P10">
-        <v>0.009246943144590635</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q10">
-        <v>0.08088690395500001</v>
+        <v>0.06393980776800001</v>
       </c>
       <c r="R10">
-        <v>0.727982135595</v>
+        <v>0.575458269912</v>
       </c>
       <c r="S10">
-        <v>7.451608302138542E-05</v>
+        <v>7.423509637947814E-05</v>
       </c>
       <c r="T10">
-        <v>7.451608302138545E-05</v>
+        <v>7.423509637947814E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>11.34891866666667</v>
+      </c>
+      <c r="H11">
+        <v>34.046756</v>
+      </c>
+      <c r="I11">
+        <v>0.7886188286984264</v>
+      </c>
+      <c r="J11">
+        <v>0.7886188286984265</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G11">
-        <v>0.119535</v>
-      </c>
-      <c r="H11">
-        <v>0.358605</v>
-      </c>
-      <c r="I11">
-        <v>0.008058455843861933</v>
-      </c>
-      <c r="J11">
-        <v>0.008058455843861934</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
-        <v>45.70030966666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N11">
-        <v>137.100929</v>
+        <v>0.029028</v>
       </c>
       <c r="O11">
-        <v>0.624502531987591</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P11">
-        <v>0.6245025319875911</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q11">
-        <v>5.462786516005</v>
+        <v>0.1098121370186667</v>
       </c>
       <c r="R11">
-        <v>49.165078644045</v>
+        <v>0.9883092331680001</v>
       </c>
       <c r="S11">
-        <v>0.005032526078401976</v>
+        <v>0.0001274935734057207</v>
       </c>
       <c r="T11">
-        <v>0.005032526078401978</v>
+        <v>0.0001274935734057207</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H12">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I12">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J12">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.65531</v>
+        <v>2.674835</v>
       </c>
       <c r="N12">
-        <v>79.96592999999999</v>
+        <v>8.024505</v>
       </c>
       <c r="O12">
-        <v>0.3642493608321389</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P12">
-        <v>0.3642493608321389</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q12">
-        <v>3.18624248085</v>
+        <v>3.967745920435</v>
       </c>
       <c r="R12">
-        <v>28.67618232765</v>
+        <v>35.709713283915</v>
       </c>
       <c r="S12">
-        <v>0.002935287390420723</v>
+        <v>0.004606613799677155</v>
       </c>
       <c r="T12">
-        <v>0.002935287390420724</v>
+        <v>0.004606613799677155</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,75 +1207,75 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H13">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I13">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J13">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1464426666666667</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N13">
-        <v>0.439328</v>
+        <v>137.100929</v>
       </c>
       <c r="O13">
-        <v>0.002001164035679469</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P13">
-        <v>0.00200116403567947</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q13">
-        <v>0.01750502416</v>
+        <v>67.79005704745634</v>
       </c>
       <c r="R13">
-        <v>0.15754521744</v>
+        <v>610.1105134271071</v>
       </c>
       <c r="S13">
-        <v>1.612629201784755E-05</v>
+        <v>0.07870529477892504</v>
       </c>
       <c r="T13">
-        <v>1.612629201784755E-05</v>
+        <v>0.07870529477892506</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.379094333333333</v>
+        <v>1.483361</v>
       </c>
       <c r="H14">
-        <v>7.137283</v>
+        <v>4.450083</v>
       </c>
       <c r="I14">
-        <v>0.1603867204881316</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J14">
-        <v>0.1603867204881316</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,43 +1302,43 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6766796666666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N14">
-        <v>2.030039</v>
+        <v>34.382999</v>
       </c>
       <c r="O14">
-        <v>0.009246943144590633</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P14">
-        <v>0.009246943144590635</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q14">
-        <v>1.609884760448556</v>
+        <v>17.00079992654634</v>
       </c>
       <c r="R14">
-        <v>14.488962844037</v>
+        <v>153.007199338917</v>
       </c>
       <c r="S14">
-        <v>0.001483086885501102</v>
+        <v>0.01973818916776621</v>
       </c>
       <c r="T14">
-        <v>0.001483086885501103</v>
+        <v>0.01973818916776622</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1349,60 +1346,60 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.379094333333333</v>
+        <v>1.483361</v>
       </c>
       <c r="H15">
-        <v>7.137283</v>
+        <v>4.450083</v>
       </c>
       <c r="I15">
-        <v>0.1603867204881316</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J15">
-        <v>0.1603867204881316</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>45.70030966666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N15">
-        <v>137.100929</v>
+        <v>0.016902</v>
       </c>
       <c r="O15">
-        <v>0.624502531987591</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P15">
-        <v>0.6245025319875911</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q15">
-        <v>108.7253477595452</v>
+        <v>0.008357255874000002</v>
       </c>
       <c r="R15">
-        <v>978.5281298359071</v>
+        <v>0.07521530286600001</v>
       </c>
       <c r="S15">
-        <v>0.1001619130420242</v>
+        <v>9.702902103262853E-06</v>
       </c>
       <c r="T15">
-        <v>0.1001619130420243</v>
+        <v>9.702902103262854E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.379094333333333</v>
+        <v>1.483361</v>
       </c>
       <c r="H16">
-        <v>7.137283</v>
+        <v>4.450083</v>
       </c>
       <c r="I16">
-        <v>0.1603867204881316</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J16">
-        <v>0.1603867204881316</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>26.65531</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N16">
-        <v>79.96592999999999</v>
+        <v>0.029028</v>
       </c>
       <c r="O16">
-        <v>0.3642493608321389</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P16">
-        <v>0.3642493608321389</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q16">
-        <v>63.41549697424332</v>
+        <v>0.014353001036</v>
       </c>
       <c r="R16">
-        <v>570.7394727681899</v>
+        <v>0.129177009324</v>
       </c>
       <c r="S16">
-        <v>0.05842076042376484</v>
+        <v>1.666405409143972E-05</v>
       </c>
       <c r="T16">
-        <v>0.05842076042376487</v>
+        <v>1.666405409143972E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,75 +1455,75 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H17">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I17">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J17">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1464426666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N17">
-        <v>0.439328</v>
+        <v>8.024505</v>
       </c>
       <c r="O17">
-        <v>0.002001164035679469</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P17">
-        <v>0.00200116403567947</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q17">
-        <v>0.3484009184248889</v>
+        <v>0.8398964067766667</v>
       </c>
       <c r="R17">
-        <v>3.135608265824</v>
+        <v>7.559067660989999</v>
       </c>
       <c r="S17">
-        <v>0.0003209601368414244</v>
+        <v>0.0009751325955197421</v>
       </c>
       <c r="T17">
-        <v>0.0003209601368414245</v>
+        <v>0.0009751325955197421</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1305996666666666</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H18">
-        <v>0.391799</v>
+        <v>0.941998</v>
       </c>
       <c r="I18">
-        <v>0.008804380700685325</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J18">
-        <v>0.008804380700685326</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,42 +1550,42 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6766796666666667</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N18">
-        <v>2.030039</v>
+        <v>137.100929</v>
       </c>
       <c r="O18">
-        <v>0.009246943144590633</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P18">
-        <v>0.009246943144590635</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q18">
-        <v>0.08837413890677777</v>
+        <v>14.34986676846022</v>
       </c>
       <c r="R18">
-        <v>0.7953672501609999</v>
+        <v>129.148800916142</v>
       </c>
       <c r="S18">
-        <v>8.141360776256823E-05</v>
+        <v>0.01666041515880891</v>
       </c>
       <c r="T18">
-        <v>8.141360776256827E-05</v>
+        <v>0.01666041515880891</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1305996666666666</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H19">
-        <v>0.391799</v>
+        <v>0.941998</v>
       </c>
       <c r="I19">
-        <v>0.008804380700685325</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J19">
-        <v>0.008804380700685326</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,39 +1612,39 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>45.70030966666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N19">
-        <v>137.100929</v>
+        <v>34.382999</v>
       </c>
       <c r="O19">
-        <v>0.624502531987591</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P19">
-        <v>0.6245025319875911</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q19">
-        <v>5.968445209030111</v>
+        <v>3.598746254666889</v>
       </c>
       <c r="R19">
-        <v>53.716006881271</v>
+        <v>32.388716292002</v>
       </c>
       <c r="S19">
-        <v>0.005498358040160666</v>
+        <v>0.004178199534628329</v>
       </c>
       <c r="T19">
-        <v>0.005498358040160667</v>
+        <v>0.004178199534628329</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1659,60 +1656,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.1305996666666666</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H20">
-        <v>0.391799</v>
+        <v>0.941998</v>
       </c>
       <c r="I20">
-        <v>0.008804380700685325</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J20">
-        <v>0.008804380700685326</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>26.65531</v>
+        <v>0.005634</v>
       </c>
       <c r="N20">
-        <v>79.96592999999999</v>
+        <v>0.016902</v>
       </c>
       <c r="O20">
-        <v>0.3642493608321389</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P20">
-        <v>0.3642493608321389</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q20">
-        <v>3.481174600896666</v>
+        <v>0.001769072244</v>
       </c>
       <c r="R20">
-        <v>31.33057140806999</v>
+        <v>0.015921650196</v>
       </c>
       <c r="S20">
-        <v>0.003206990042747449</v>
+        <v>2.053919977553093E-06</v>
       </c>
       <c r="T20">
-        <v>0.00320699004274745</v>
+        <v>2.053919977553093E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1721,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.1305996666666666</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H21">
-        <v>0.391799</v>
+        <v>0.941998</v>
       </c>
       <c r="I21">
-        <v>0.008804380700685325</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J21">
-        <v>0.008804380700685326</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,39 +1736,39 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.1464426666666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N21">
-        <v>0.439328</v>
+        <v>0.029028</v>
       </c>
       <c r="O21">
-        <v>0.002001164035679469</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P21">
-        <v>0.00200116403567947</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q21">
-        <v>0.01912536345244444</v>
+        <v>0.003038257549333334</v>
       </c>
       <c r="R21">
-        <v>0.172128271072</v>
+        <v>0.027344317944</v>
       </c>
       <c r="S21">
-        <v>1.761901001464188E-05</v>
+        <v>3.527463561023026E-06</v>
       </c>
       <c r="T21">
-        <v>1.761901001464188E-05</v>
+        <v>3.527463561023026E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -1783,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.4573603333333334</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H22">
-        <v>1.372081</v>
+        <v>0.692329</v>
       </c>
       <c r="I22">
-        <v>0.03083296148325295</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J22">
-        <v>0.03083296148325296</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,39 +1798,39 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N22">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="O22">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P22">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q22">
-        <v>0.3094864379065556</v>
+        <v>0.6172886135716666</v>
       </c>
       <c r="R22">
-        <v>2.785377941159</v>
+        <v>5.555597522145</v>
       </c>
       <c r="S22">
-        <v>0.000285110641814993</v>
+        <v>0.0007166815372469873</v>
       </c>
       <c r="T22">
-        <v>0.0002851106418149931</v>
+        <v>0.0007166815372469872</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -1845,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.4573603333333334</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H23">
-        <v>1.372081</v>
+        <v>0.692329</v>
       </c>
       <c r="I23">
-        <v>0.03083296148325295</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J23">
-        <v>0.03083296148325296</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,36 +1866,36 @@
         <v>137.100929</v>
       </c>
       <c r="O23">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P23">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q23">
-        <v>20.90150886258322</v>
+        <v>10.54654989707122</v>
       </c>
       <c r="R23">
-        <v>188.113579763249</v>
+        <v>94.918949073641</v>
       </c>
       <c r="S23">
-        <v>0.01925526251496734</v>
+        <v>0.01224470600413484</v>
       </c>
       <c r="T23">
-        <v>0.01925526251496735</v>
+        <v>0.01224470600413484</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.4573603333333334</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H24">
-        <v>1.372081</v>
+        <v>0.692329</v>
       </c>
       <c r="I24">
-        <v>0.03083296148325295</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J24">
-        <v>0.03083296148325296</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,42 +1922,42 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N24">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="O24">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P24">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q24">
-        <v>12.19108146670333</v>
+        <v>2.644927479407889</v>
       </c>
       <c r="R24">
-        <v>109.71973320033</v>
+        <v>23.804347314671</v>
       </c>
       <c r="S24">
-        <v>0.01123088651283684</v>
+        <v>0.003070801324004612</v>
       </c>
       <c r="T24">
-        <v>0.01123088651283685</v>
+        <v>0.003070801324004612</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.4573603333333334</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H25">
-        <v>1.372081</v>
+        <v>0.692329</v>
       </c>
       <c r="I25">
-        <v>0.03083296148325295</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J25">
-        <v>0.03083296148325296</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,28 +1984,90 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N25">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="O25">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P25">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q25">
-        <v>0.06697706684088889</v>
+        <v>0.001300193862</v>
       </c>
       <c r="R25">
-        <v>0.602793601568</v>
+        <v>0.011701744758</v>
       </c>
       <c r="S25">
-        <v>6.170181363377611E-05</v>
+        <v>1.509544992812464E-06</v>
       </c>
       <c r="T25">
-        <v>6.170181363377614E-05</v>
+        <v>1.509544992812464E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.2307763333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.692329</v>
+      </c>
+      <c r="I26">
+        <v>0.01603629094807014</v>
+      </c>
+      <c r="J26">
+        <v>0.01603629094807014</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.009676000000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.029028</v>
+      </c>
+      <c r="O26">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="P26">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="Q26">
+        <v>0.002232991801333334</v>
+      </c>
+      <c r="R26">
+        <v>0.020096926212</v>
+      </c>
+      <c r="S26">
+        <v>2.592537690886298E-06</v>
+      </c>
+      <c r="T26">
+        <v>2.592537690886297E-06</v>
       </c>
     </row>
   </sheetData>
